--- a/test_sample.xlsx
+++ b/test_sample.xlsx
@@ -16,13 +16,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$O$5:$S$188</definedName>
     <definedName function="false" hidden="false" name="类别" vbProcedure="false">Sheet1!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$O$5:$S$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Sheet1!$O$5:$S$188</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="107">
   <si>
     <r>
       <t xml:space="preserve">ATM</t>
@@ -34,6 +35,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">外环境（负样本）</t>
     </r>
@@ -49,6 +51,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">外环境（正样本）</t>
     </r>
@@ -126,6 +129,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">外环境（正样本）</t>
     </r>
@@ -159,6 +163,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">生成器</t>
     </r>
@@ -243,6 +248,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">门后工作</t>
     </r>
@@ -275,6 +281,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">外环境（负样本）</t>
     </r>
@@ -305,6 +312,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">机</t>
     </r>
@@ -353,6 +361,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">人开箱体时有人闯入，威胁，扭打，捅刀，跌倒，抱走桌上的钱</t>
     </r>
@@ -450,6 +459,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">把椅子，箱子等</t>
     </r>
@@ -474,6 +484,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">把椅子，打印机</t>
     </r>
@@ -488,6 +499,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">台</t>
     </r>
@@ -507,6 +519,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">并列排放</t>
     </r>
@@ -521,6 +534,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">台</t>
     </r>
@@ -540,6 +554,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">并列排放，</t>
     </r>
@@ -559,6 +574,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">台侧放</t>
     </r>
@@ -573,6 +589,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">台</t>
     </r>
@@ -592,6 +609,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">并排另一侧</t>
     </r>
@@ -613,6 +631,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">厅</t>
     </r>
@@ -637,6 +656,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的盲角内操作</t>
     </r>
@@ -661,9 +681,13 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">门长时间遮挡</t>
     </r>
+  </si>
+  <si>
+    <t>test modify</t>
   </si>
   <si>
     <t>标号重复！</t>
@@ -684,6 +708,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -698,6 +723,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -712,15 +738,13 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
   </si>
   <si>
-    <t>  年</t>
-  </si>
-  <si>
-    <t>   年</t>
+    <t>年</t>
   </si>
   <si>
     <t>合 计</t>
@@ -792,6 +816,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、课题经费支出：</t>
     </r>
@@ -811,6 +836,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">单位：万元</t>
     </r>
@@ -835,6 +861,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）、课题经费支出预算：</t>
     </r>
@@ -865,6 +892,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）仪器设备购置费用明细：</t>
     </r>
@@ -874,6 +902,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（单价在</t>
     </r>
@@ -893,6 +922,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">万元以上，含</t>
     </r>
@@ -912,6 +942,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">万元）</t>
     </r>
@@ -947,6 +978,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">系列</t>
     </r>
@@ -961,6 +993,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">万</t>
     </r>
@@ -1014,12 +1047,14 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1032,6 +1067,7 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1045,6 +1081,7 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1059,6 +1096,7 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1540,15 +1578,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1576080</xdr:colOff>
+      <xdr:colOff>1602720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1557,8 +1595,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="3826440"/>
-          <a:ext cx="1549080" cy="2209680"/>
+          <a:off x="54000" y="3817440"/>
+          <a:ext cx="1548720" cy="2209320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1590,15 +1628,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>244080</xdr:colOff>
+      <xdr:colOff>270720</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1607,8 +1645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="5726520"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="54000" y="5717520"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1649,15 +1687,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>765720</xdr:colOff>
+      <xdr:colOff>792720</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>982800</xdr:colOff>
+      <xdr:colOff>1009440</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1666,8 +1704,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="765720" y="3834360"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="792720" y="3825360"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1708,15 +1746,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>605880</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1725,8 +1763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="4177440"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="54000" y="4168440"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,15 +1805,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>605880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1784,8 +1822,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="4538880"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="54000" y="4529880"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1826,15 +1864,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:colOff>605880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1843,8 +1881,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="4910760"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="54000" y="4901760"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1885,15 +1923,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>605880</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1902,8 +1940,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="5272200"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="54000" y="5263200"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,15 +1982,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1178640</xdr:colOff>
+      <xdr:colOff>1205640</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1569960</xdr:colOff>
+      <xdr:colOff>1596600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1961,8 +1999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1178640" y="4478400"/>
-          <a:ext cx="391320" cy="846720"/>
+          <a:off x="1205640" y="4469400"/>
+          <a:ext cx="390960" cy="846360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1983,15 +2021,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>60840</xdr:colOff>
+      <xdr:colOff>87840</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1609920</xdr:colOff>
+      <xdr:colOff>1636560</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2000,8 +2038,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1716120" y="3826440"/>
-          <a:ext cx="1549080" cy="2209680"/>
+          <a:off x="1743120" y="3817440"/>
+          <a:ext cx="1548720" cy="2209320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2033,15 +2071,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>96480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>286560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2050,8 +2088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1724760" y="5734800"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="1751760" y="5725800"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2092,15 +2130,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>770040</xdr:colOff>
+      <xdr:colOff>797040</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>987120</xdr:colOff>
+      <xdr:colOff>1013760</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2109,8 +2147,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2425320" y="3830040"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="2452320" y="3821040"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2151,15 +2189,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>502560</xdr:colOff>
+      <xdr:colOff>529560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>930960</xdr:colOff>
+      <xdr:colOff>957600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2167,9 +2205,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1778400" y="3878280"/>
-          <a:ext cx="428400" cy="330120"/>
+        <a:xfrm>
+          <a:off x="2184840" y="3820320"/>
+          <a:ext cx="428040" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2210,15 +2248,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>656640</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2227,8 +2265,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733040" y="4547160"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="1760040" y="4538160"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2269,15 +2307,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>656640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2286,8 +2324,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733040" y="4919040"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="1760040" y="4910040"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2328,15 +2366,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>656640</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2345,8 +2383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733040" y="5280480"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="1760040" y="5271480"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2387,15 +2425,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1212480</xdr:colOff>
+      <xdr:colOff>1239480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1603800</xdr:colOff>
+      <xdr:colOff>1630440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2404,8 +2442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2867760" y="4478400"/>
-          <a:ext cx="391320" cy="846720"/>
+          <a:off x="2894760" y="4469400"/>
+          <a:ext cx="390960" cy="846360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2426,15 +2464,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>873720</xdr:colOff>
+      <xdr:colOff>900720</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1118880</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:colOff>1145520</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2443,8 +2481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2529000" y="5020200"/>
-          <a:ext cx="245160" cy="219960"/>
+          <a:off x="2556000" y="5011200"/>
+          <a:ext cx="244800" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2465,15 +2503,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>873720</xdr:colOff>
+      <xdr:colOff>900720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1118880</xdr:colOff>
+      <xdr:colOff>1145520</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2482,8 +2520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2529000" y="4596840"/>
-          <a:ext cx="245160" cy="219960"/>
+          <a:off x="2556000" y="4587840"/>
+          <a:ext cx="244800" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2504,15 +2542,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1042920</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:colOff>1069920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1288080</xdr:colOff>
+      <xdr:colOff>1314720</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2521,8 +2559,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2698200" y="5418000"/>
-          <a:ext cx="245160" cy="219960"/>
+          <a:off x="2725200" y="5409000"/>
+          <a:ext cx="244800" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2543,15 +2581,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>60840</xdr:colOff>
+      <xdr:colOff>87840</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1609920</xdr:colOff>
+      <xdr:colOff>1636560</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2560,8 +2598,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3424320" y="3826440"/>
-          <a:ext cx="1549080" cy="2209680"/>
+          <a:off x="3451320" y="3817440"/>
+          <a:ext cx="1548720" cy="2209320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2593,15 +2631,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>96480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>286560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2610,8 +2648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3432960" y="5734800"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="3459960" y="5725800"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2652,15 +2690,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>871560</xdr:colOff>
+      <xdr:colOff>898560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1088640</xdr:colOff>
+      <xdr:colOff>1115280</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2669,8 +2707,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4235040" y="3830040"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="4262040" y="3821040"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2711,15 +2749,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>921600</xdr:colOff>
+      <xdr:colOff>948600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1313280</xdr:colOff>
+      <xdr:colOff>1339920</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,9 +2765,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="3665880" y="3618720"/>
-          <a:ext cx="391680" cy="846720"/>
+        <a:xfrm>
+          <a:off x="4312080" y="3837240"/>
+          <a:ext cx="391320" cy="846360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2750,15 +2788,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>111600</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>356760</xdr:colOff>
+      <xdr:colOff>383400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2767,8 +2805,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3475080" y="4342680"/>
-          <a:ext cx="245160" cy="219960"/>
+          <a:off x="3502080" y="4333680"/>
+          <a:ext cx="244800" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2789,15 +2827,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>543600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:colOff>570600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>788760</xdr:colOff>
+      <xdr:colOff>815400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2806,8 +2844,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3907080" y="4351320"/>
-          <a:ext cx="245160" cy="219960"/>
+          <a:off x="3934080" y="4342320"/>
+          <a:ext cx="244800" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2828,15 +2866,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>298080</xdr:colOff>
+      <xdr:colOff>325080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>543240</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:colOff>569880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2845,8 +2883,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3661560" y="4664520"/>
-          <a:ext cx="245160" cy="219960"/>
+          <a:off x="3688560" y="4655520"/>
+          <a:ext cx="244800" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2867,15 +2905,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>60840</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:colOff>87840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>202320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1609920</xdr:colOff>
+      <xdr:colOff>1636560</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2884,8 +2922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5132520" y="3817800"/>
-          <a:ext cx="1549080" cy="2209680"/>
+          <a:off x="5159520" y="3808800"/>
+          <a:ext cx="1548720" cy="2209320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2917,15 +2955,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>96480</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>286560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2934,8 +2972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5141160" y="5726520"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="5168160" y="5717520"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2976,15 +3014,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>998640</xdr:colOff>
+      <xdr:colOff>1025640</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>202320</xdr:rowOff>
+      <xdr:rowOff>193320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1215720</xdr:colOff>
+      <xdr:colOff>1242360</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2993,8 +3031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6070320" y="3808800"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="6097320" y="3799800"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3035,15 +3073,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1027440</xdr:colOff>
+      <xdr:colOff>1054440</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1579680</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>1606320</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3051,9 +3089,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5657760" y="3948480"/>
-          <a:ext cx="552240" cy="330120"/>
+        <a:xfrm>
+          <a:off x="6126120" y="3828600"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3094,15 +3132,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:colOff>1078560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1603800</xdr:colOff>
+      <xdr:colOff>1630440</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3111,8 +3149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6123240" y="4530240"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="6150240" y="4521240"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3153,15 +3191,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:colOff>1078560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1603800</xdr:colOff>
+      <xdr:colOff>1630440</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3170,8 +3208,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6123240" y="4902120"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="6150240" y="4893120"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3212,15 +3250,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:colOff>1078560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1603800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:colOff>1630440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3229,8 +3267,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6123240" y="5263560"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="6150240" y="5254560"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3271,15 +3309,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1034640</xdr:colOff>
+      <xdr:colOff>1061640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1586880</xdr:colOff>
+      <xdr:colOff>1613520</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3288,8 +3326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4398120" y="4241160"/>
-          <a:ext cx="552240" cy="329760"/>
+          <a:off x="4425120" y="4232160"/>
+          <a:ext cx="551880" cy="329400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3330,15 +3368,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1034640</xdr:colOff>
+      <xdr:colOff>1061640</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1586880</xdr:colOff>
+      <xdr:colOff>1613520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3347,8 +3385,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4398120" y="4602240"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="4425120" y="4593240"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3389,15 +3427,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1034640</xdr:colOff>
+      <xdr:colOff>1061640</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1586880</xdr:colOff>
+      <xdr:colOff>1613520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3406,8 +3444,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4398120" y="4974120"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="4425120" y="4965120"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3448,15 +3486,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1034640</xdr:colOff>
+      <xdr:colOff>1061640</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1586880</xdr:colOff>
+      <xdr:colOff>1613520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3465,8 +3503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4398120" y="5378040"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="4425120" y="5369040"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3507,15 +3545,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>96480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>460800</xdr:colOff>
+      <xdr:colOff>487440</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3524,8 +3562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5141160" y="4486680"/>
-          <a:ext cx="391320" cy="846360"/>
+          <a:off x="5168160" y="4477680"/>
+          <a:ext cx="390960" cy="846000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3546,15 +3584,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>662040</xdr:colOff>
+      <xdr:colOff>689040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>907200</xdr:colOff>
+      <xdr:colOff>933840</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3563,8 +3601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5733720" y="4571280"/>
-          <a:ext cx="245160" cy="219960"/>
+          <a:off x="5760720" y="4562280"/>
+          <a:ext cx="244800" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3585,15 +3623,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>653400</xdr:colOff>
+      <xdr:colOff>680400</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>898560</xdr:colOff>
+      <xdr:colOff>925200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3602,8 +3640,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5725080" y="4986000"/>
-          <a:ext cx="245160" cy="219960"/>
+          <a:off x="5752080" y="4977000"/>
+          <a:ext cx="244800" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3624,15 +3662,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>450360</xdr:colOff>
+      <xdr:colOff>477360</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>695520</xdr:colOff>
+      <xdr:colOff>722160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3641,8 +3679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5522040" y="5434920"/>
-          <a:ext cx="245160" cy="219960"/>
+          <a:off x="5549040" y="5425920"/>
+          <a:ext cx="244800" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3663,15 +3701,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1576080</xdr:colOff>
+      <xdr:colOff>1602720</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3680,8 +3718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="6645600"/>
-          <a:ext cx="1549080" cy="2209680"/>
+          <a:off x="54000" y="6636600"/>
+          <a:ext cx="1548720" cy="2209320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3713,15 +3751,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>244080</xdr:colOff>
+      <xdr:colOff>270720</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3730,8 +3768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="8545680"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="54000" y="8536680"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3772,15 +3810,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>765720</xdr:colOff>
+      <xdr:colOff>792720</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>982800</xdr:colOff>
+      <xdr:colOff>1009440</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3789,8 +3827,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="765720" y="6653520"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="792720" y="6644520"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3831,15 +3869,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>605880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3848,8 +3886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="6996600"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="54000" y="6987600"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3890,15 +3928,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>605880</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3907,8 +3945,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="7358400"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="54000" y="7349400"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3949,15 +3987,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:colOff>54000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>605880</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3966,8 +4004,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="7729560"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="54000" y="7720560"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4008,15 +4046,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>605880</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4025,8 +4063,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="8091360"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="54000" y="8082360"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4067,15 +4105,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1626840</xdr:colOff>
+      <xdr:colOff>1653480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4084,8 +4122,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733040" y="6658200"/>
-          <a:ext cx="1549080" cy="2209680"/>
+          <a:off x="1760040" y="6649200"/>
+          <a:ext cx="1548720" cy="2209320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4117,15 +4155,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:colOff>321480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4134,8 +4172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733040" y="8558280"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="1760040" y="8549280"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4176,15 +4214,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1108440</xdr:colOff>
+      <xdr:colOff>1135440</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1325520</xdr:colOff>
+      <xdr:colOff>1352160</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4193,8 +4231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2763720" y="6666120"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="2790720" y="6657120"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4235,15 +4273,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>785880</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:colOff>812880</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1116000</xdr:colOff>
+      <xdr:colOff>1142640</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4252,8 +4290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2441160" y="6657120"/>
-          <a:ext cx="330120" cy="552600"/>
+          <a:off x="2468160" y="6648120"/>
+          <a:ext cx="329760" cy="552240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4294,15 +4332,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>656640</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4311,8 +4349,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733040" y="7371000"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="1760040" y="7362000"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4353,15 +4391,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>656640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4370,8 +4408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733040" y="7742520"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="1760040" y="7733520"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4412,15 +4450,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:colOff>656640</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4429,8 +4467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733040" y="8103960"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="1760040" y="8094960"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4471,15 +4509,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>104760</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1626840</xdr:colOff>
+      <xdr:colOff>1653480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4488,8 +4526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3441240" y="6658200"/>
-          <a:ext cx="1549080" cy="2209680"/>
+          <a:off x="3468240" y="6649200"/>
+          <a:ext cx="1548720" cy="2209320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4521,15 +4559,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:colOff>321480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4538,8 +4576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3441240" y="8558280"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="3468240" y="8549280"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4580,15 +4618,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>626040</xdr:colOff>
+      <xdr:colOff>653040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>843120</xdr:colOff>
+      <xdr:colOff>869760</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4597,8 +4635,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3989520" y="6666120"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="4016520" y="6657120"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4639,15 +4677,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1055880</xdr:colOff>
+      <xdr:colOff>1082880</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1608120</xdr:colOff>
+      <xdr:colOff>1634760</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4656,8 +4694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419360" y="7009560"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="4446360" y="7000560"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4698,15 +4736,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1055880</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:colOff>1082880</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1608120</xdr:colOff>
+      <xdr:colOff>1634760</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4715,8 +4753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419360" y="7371000"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="4446360" y="7362000"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4757,15 +4795,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1055880</xdr:colOff>
+      <xdr:colOff>1082880</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1608120</xdr:colOff>
+      <xdr:colOff>1634760</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4774,8 +4812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419360" y="7742520"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="4446360" y="7733520"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4816,15 +4854,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1055880</xdr:colOff>
+      <xdr:colOff>1082880</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1608120</xdr:colOff>
+      <xdr:colOff>1634760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4833,8 +4871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419360" y="8116560"/>
-          <a:ext cx="552240" cy="330120"/>
+          <a:off x="4446360" y="8107560"/>
+          <a:ext cx="551880" cy="329760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4875,15 +4913,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1626840</xdr:colOff>
+      <xdr:colOff>1653480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4892,8 +4930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5149440" y="6671160"/>
-          <a:ext cx="1549080" cy="2209680"/>
+          <a:off x="5176440" y="6662160"/>
+          <a:ext cx="1548720" cy="2209320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4925,15 +4963,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>104760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>294840</xdr:colOff>
+      <xdr:colOff>321480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4942,8 +4980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5149440" y="8570880"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="5176440" y="8561880"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4984,15 +5022,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1281240</xdr:colOff>
+      <xdr:colOff>1308240</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1611360</xdr:colOff>
+      <xdr:colOff>1638000</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5001,8 +5039,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6352920" y="6974640"/>
-          <a:ext cx="330120" cy="552600"/>
+          <a:off x="6379920" y="6965640"/>
+          <a:ext cx="329760" cy="552240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5043,15 +5081,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>900000</xdr:colOff>
+      <xdr:colOff>927000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1230120</xdr:colOff>
+      <xdr:colOff>1256760</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5060,8 +5098,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5971680" y="6967440"/>
-          <a:ext cx="330120" cy="552600"/>
+          <a:off x="5998680" y="6958440"/>
+          <a:ext cx="329760" cy="552240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5102,15 +5140,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>430200</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>760320</xdr:colOff>
+      <xdr:colOff>786960</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5119,8 +5157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5501880" y="7593480"/>
-          <a:ext cx="330120" cy="552240"/>
+          <a:off x="5528880" y="7584480"/>
+          <a:ext cx="329760" cy="551880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5161,15 +5199,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>87480</xdr:colOff>
+      <xdr:colOff>114480</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>417600</xdr:colOff>
+      <xdr:colOff>444240</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5178,8 +5216,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5159160" y="7586640"/>
-          <a:ext cx="330120" cy="552240"/>
+          <a:off x="5186160" y="7577640"/>
+          <a:ext cx="329760" cy="551880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5220,15 +5258,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1411200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>1438200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1628280</xdr:colOff>
+      <xdr:colOff>1654920</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5237,8 +5275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6482880" y="6658200"/>
-          <a:ext cx="217080" cy="278640"/>
+          <a:off x="6509880" y="6649200"/>
+          <a:ext cx="216720" cy="278280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5282,13 +5320,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:S188"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -7378,6 +7416,9 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>64</v>
+      </c>
       <c r="O66" s="0" t="n">
         <v>1822</v>
       </c>
@@ -8790,7 +8831,7 @@
     </row>
     <row r="149" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N149" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O149" s="0" t="n">
         <v>5011</v>
@@ -9491,7 +9532,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J2 Q21:Q52 K22 K24:K52 Q77:Q84 Q93:Q132 Q141:Q188" type="list">
-      <formula1>OFFSET(#REF!,1,MATCH(#REF!,类别,0)-1,COUNTA(OFFSET(#REF!,1,MATCH(#REF!,类别,0)-1,100, 1)), 1)</formula1>
+      <formula1>OFFSET(#ref!,1,MATCH(#ref!,类别,0)-1,COUNTA(OFFSET(#ref!,1,MATCH(#ref!,类别,0)-1,100, 1)), 1)</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K2 L22 L24:L28" type="list">
@@ -9517,7 +9558,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H38"/>
@@ -9533,22 +9574,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>71</v>
@@ -10170,7 +10211,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:O65536"/>
@@ -10220,25 +10261,25 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="38"/>
       <c r="I3" s="39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" s="39"/>
       <c r="K3" s="40" t="s">
@@ -11099,7 +11140,7 @@
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I39" s="39"/>
       <c r="J39" s="39" t="s">
@@ -11132,7 +11173,7 @@
       </c>
       <c r="I40" s="39"/>
       <c r="J40" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
